--- a/testCase/login/ModelTest.xlsx
+++ b/testCase/login/ModelTest.xlsx
@@ -472,6 +472,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.5"/>
       <color rgb="FF6A8759"/>
       <name val="Consolas"/>
@@ -480,14 +488,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -944,7 +944,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,10 +953,10 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,20 +965,20 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,11 +1087,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1552,7 +1553,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1628,7 +1629,7 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="2"/>
@@ -1665,7 +1666,7 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2"/>
@@ -2477,6 +2478,9 @@
       <c r="E53"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId2" display="xyy@ybm100.com" tooltip="mailto:xyy@ybm100.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
